--- a/product_infos.xlsx
+++ b/product_infos.xlsx
@@ -7,7 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="monitor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="glasses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mouse" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cat food" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dog toy" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,39 +454,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KOORUI 24 Inch Business Computer Monitor Full HD 1920 x 1080p VA Display 75Hz 3000:1 Contrast Ratio with HDMI, VGA, Frameless, 75 x 75 mm VESA Mountable, Ergonomic Tilt, Black</t>
+          <t>Drinking Glasses 6pc Set - Can Shaped Glass Cups, 16oz Iced Coffee Glasses, Iced Tea Glasses, Cute Tumbler Cup, Cocktail Glasses, Whiskey, Wine, Soda, Clear Water Cups, Beer Glasses, Cordial Glasses</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>22.93</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.4 out of 5 stars</t>
+          <t>4.7 out of 5 stars</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2,741</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfYXRmOjIwMDA4NTE1MjQxNTc5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FKOORUI-Business-Computer-Monitor-Display%2Fdp%2FB09VD9P2Q3%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26smid%3DAHJQFGZ6OQA8E%26sr%3D8-1-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfYXRmOjIwMDA4OTY0ODEzNDg5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FDrinking-Glasses-6pc-Set-Cocktail%2Fdp%2FB09BP6KB5Q%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-1-spons%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOORUI 27 Inch FHD Monitor, Computer Monitors Full HD(1920 x 1080p) IPS Display 75Hz, HDMI, VGA, 5ms Response Time, 75 x 75 mm VESA Mountable, Frameless</t>
+          <t>GUDVUE Blue Light Glasses, Computer/Gaming/TV/Phones Glasses for Women/men, Anti Glare/UV400/Eye Strain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>127.49</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,159 +496,159 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfYXRmOjIwMDA4Nzk3MDQ3NDM5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FKOORUI-27-Inch-Monitor-Computer%2Fdp%2FB0B3DS23NB%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26sr%3D8-2-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfYXRmOjIwMDA3OTc0Mjc2NDQ5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FGUDVUE-Glasses-Textured-Computer-Gunmetal%2Fdp%2FB0933135CT%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-2-spons%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sceptre 24" Professional Thin 75Hz 1080p LED Monitor 2x HDMI VGA Build-in Speakers, Machine Black (E248W-19203R Series)</t>
+          <t>livho 2 Pack Blue Light Blocking Glasses, Computer Reading/Gaming/TV/Phones Glasses for Women Men,Anti Eyestrain &amp; UV Glare (Light Black+Clear)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>99.28</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.6 out of 5 stars</t>
+          <t>4.3 out of 5 stars</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23,993</t>
+          <t>105,797</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sceptre-E248W-19203R-Monitor-Speakers-Metallic/dp/B0773ZY26F/ref=sr_1_3?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-3</t>
+          <t>https://www.amazon.com/Blocking-Glasses-Computer-Reading-Eyestrain/dp/B07W781XWF/ref=sr_1_3?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Acer SB220Q bi 21.5 Inches Full HD (1920 x 1080) IPS Ultra-Thin Zero Frame Monitor (HDMI &amp; VGA Port), Black</t>
+          <t>3-Pack Blue Light Blocking Glasses for Women/Men Blue Light Glasses for Teens, Computer Glasses Gaming Glasses Anti Eye Strain Non-Prescription</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>12.74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.3 out of 5 stars</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39,906</t>
+          <t>2,719</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Acer-SB220Q-Ultra-Thin-Frame-Monitor/dp/B07CVL2D2S/ref=sr_1_4?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-4</t>
+          <t>https://www.amazon.com/Blocking-Glasses-Computer-Reading-Non-Prescription/dp/B08R8J1KTT/ref=sr_1_4?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAMSUNG 23.5” CF396 Curved Computer Monitor, AMD FreeSync for Advanced Gaming, 4ms Response Time, Wide Viewing Angle, Ultra Slim Design, LC24F396FHNXZA, Black</t>
+          <t>Blue Light Glasses, 2 Pack, Fashion Round Half Frame, Computer/Game/Reading/TV Blue Light Blocking Glasses</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>119.99</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.6 out of 5 stars</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22,589</t>
+          <t>532</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Computer-FreeSync-Advanced-LC24F396FHNXZA/dp/B079K3MXWF/ref=sr_1_5?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Glasses-Fashion-Computer-Blocking-Anti-Glare/dp/B09R43JLRH/ref=sr_1_5?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sceptre 20" 1600x900 75Hz Ultra Thin LED Monitor 2x HDMI VGA Built-in Speakers, Machine Black Wide Viewing Angle 170° (Horizontal) / 160° (Vertical)</t>
+          <t>Blue Light Blocking Glasses - Women/Men 3Pack Computer Reading Gaming Anti Eyestrain Blue Light Glasses Non Prescription</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79.97</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.5 out of 5 stars</t>
+          <t>4.4 out of 5 stars</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24,770</t>
+          <t>1,870</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sceptre-E205W-16003R-Frameless-Speakers-Metallic/dp/B07743412C/ref=sr_1_6?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-6</t>
+          <t>https://www.amazon.com/Blue-Light-Blocking-Glasses-Prescription/dp/B09M3R2PNT/ref=sr_1_6?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>InnoView 24 Inch Monitor Computer Display 1080p Full HD Gaming Monitor 100HZ 4000:1 Contrast Ratio HDMI Ultra Thin Built-in Speakers and VESA Mounting Machine Black</t>
+          <t>Blue Light Blocking Glasses for women/men - ZZD 3Pack Computer Reading/Gaming/TV/Phones Glasses</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>119.99</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.0 out of 5 stars</t>
+          <t>4.7 out of 5 stars</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>845</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfbXRmOjIwMDA5MzE2MTIxNjA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FInnoView-Monitor-Computer-Display-Gaming%2Fdp%2FB0BD76GZG3%2Fref%3Dsr_1_7_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26sr%3D8-7-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/Blue-Light-Blocking-Glasses-women/dp/B09YN8NZ76/ref=sr_1_7?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sceptre 22 inch 75Hz 1080P LED Monitor 99% sRGB HDMI X2 VGA Build-In Speakers, Machine Black (E225W-19203R series)</t>
+          <t>COASION Classic Non-prescription Clear Lens Eyeglasses for Women Thick Square Frame Eyewear</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -655,105 +658,105 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6,926</t>
+          <t>403</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sceptre-E225W-19203R-Monitor-Speakers-Metallic/dp/B07774L6TT/ref=sr_1_8?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-8</t>
+          <t>https://www.amazon.com/COASION-Classic-Non-prescription-Eyeglasses-Transparent/dp/B09V7XC7VL/ref=sr_1_8?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sceptre IPS 24-Inch Computer LED Monitor 1920x1080 1080p HDMI VGA up to 75Hz 300 Lux Build-in Speakers 2021 Black (E249W-FPT)</t>
+          <t>2Pack Blue-Light Blocking Glasses Computer Reading/Gaming/TV/Phones Glasses Fashion Anti Eyestrain UV Glasses for Women Men</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>97.98</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.6 out of 5 stars</t>
+          <t>4.7 out of 5 stars</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3,835</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sceptre-Computer-1920x1080-Speakers-E249W-FPT/dp/B092XF3W9T/ref=sr_1_9?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-9</t>
+          <t>https://www.amazon.com/Blue-Light-Blocking-Glasses-Computer-Eyestrain/dp/B0B2R4NR2F/ref=sr_1_9?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LG 24MP400-B 24-Inch Full HD (1920 x 1080) IPS Monitor with 3-Side Virtually Borderless Design, AMD FreeSync and OnScreen Control</t>
+          <t>Computer Blue Light Blocking Glasses - racico 3 pack Blue Light Glasses Men Women, Anti Blu-Ray Clear Gaming Glasses Lenses</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not shown on search</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.6 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>703</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LG-24MP400-B-Virtually-Borderless-FreeSync/dp/B097NWD3TL/ref=sr_1_10?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-10</t>
+          <t>https://www.amazon.com/Computer-Blue-Light-Blocking-Glasses/dp/B09VD83V7J/ref=sr_1_10?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LG 29WN600-W 29" 21:9 UltraWide WFHD IPS HDR10 Monitor with FreeSync, Silver</t>
+          <t>6 Pack Reading Glasses by BOOST EYEWEAR, Traditional Frames in Assorted Colors, for Men and Women, with Spring Loaded Hinges</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>179.99</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3,048</t>
+          <t>3,560</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LG-29WN600-W-29-21-UltraWide/dp/B0876DBCBX/ref=sr_1_11?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-11</t>
+          <t>https://www.amazon.com/Reading-Glasses-Traditional-Tortoise-Assorted/dp/B07Y2DGW7N/ref=sr_1_11?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KOORUI 24-Inch Curved Computer Monitor- Full HD 1080P 75Hz Gaming Monitor 1800R LED Monitor HDMI VGA, Tilt Adjustment, Eye Care, Black 24N5C</t>
+          <t>ROCKSAFE Z87.1 Anti-Fog Safety Glasses, Lightweight Polycarbonate Impact Resistant, UV Protective Eyewear [Pack of 1/2/5]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>119.99</t>
+          <t>26.99</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -763,24 +766,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfbXRmOjIwMDA5NzI0NDEyODE5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FKOORUI-24-Inch-Computer-Monitor-Adjustment%2Fdp%2FB0BJZ8Y2FL%2Fref%3Dsr_1_12_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26sr%3D8-12-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfbXRmOjIwMDA3MzQ1MTkzNTA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FROCKSAFE-Lightweight-Polycarbonate-Resistant-Protective%2Fdp%2FB09PHFP6QP%2Fref%3Dsr_1_12_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-12-spons%26psc%3D1%26smid%3DA22I4HT5T86F85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sceptre Curved 24" 75Hz Professional LED Monitor 1080p 98% sRGB HDMI VGA Build-in Speakers, Machine Black 2021</t>
+          <t>Reading Glasses 5 Pairs Quality Readers Spring Hinge Glasses for Reading for Men and Women</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>99.97</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -790,186 +793,184 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3,478</t>
+          <t>25,133</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sceptre-Professional-Monitor-DiaplyPort-Speakers/dp/B07H8P9QX2/ref=sr_1_13?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-13</t>
+          <t>https://www.amazon.com/Reading-Glasses-Quality-Readers-Spring/dp/B07DZCL61C/ref=sr_1_13?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Acer PG241Y Pbiipx 23.8” Full HD (1920 x 1080) VA Gaming Monitor | AMD FreeSync Premium Technology | Up to 165Hz Refresh Rate | 1ms VRB | 1 x Display Port 1.2a &amp; 2 x HDMI 2.0</t>
+          <t>Blue Light Blocking Glasses Women Men Computer Glasses TR90 Round Eyewear Frame with Interchangeable Temples &amp; Nose Pads</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>119.99</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.2 out of 5 stars</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2,950</t>
+          <t>1,086</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Acer-Monitor-FreeSync-Premium-Technology/dp/B09TBJFG7K/ref=sr_1_14?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-14</t>
+          <t>https://www.amazon.com/CHEERS-Blocking-Glasses-Filter-Eyewear/dp/B085BP7JHC/ref=sr_1_14?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dell S2721HS Full HD 1920 x 1080p, 75Hz IPS LED LCD Thin Bezel Adjustable Gaming Monitor, 4ms Grey-to-Grey Response Time, 16.7 Million Colors, HDMI ports, AMD FreeSync, Platinum Silver</t>
+          <t>Reading Glasses Women or Readers Men - Gaoye 6 Pack Stylish Blue Light Blocking Computer Eyeglasses - Ease Blurry Vision</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>169.99</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.8 out of 5 stars</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Dell-S2721HS-Adjustable-Response-FreeSync/dp/B09S4ZZMS9/ref=sr_1_15?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-15</t>
+          <t>https://www.amazon.com/Reading-Glasses-Women-Readers-Men/dp/B0B4SBMNHR/ref=sr_1_15?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LG 27GL83A-B 27 Inch Ultragear QHD IPS 1ms NVIDIA G-SYNC Compatible Gaming Monitor, Black</t>
+          <t>Maxjuli Blue Light Blocking Glasses,Computer Reading/Gaming/TV/Phones Glasses for Women Men(Transparent)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>267.99</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9,669</t>
+          <t>29,210</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LG-27GL83A-B-Ultragear-Compatible-Monitor/dp/B07YGZL8XF/ref=sr_1_16?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-16</t>
+          <t>https://www.amazon.com/Maxjuli-Blocking-Glasses-Computer-Transparent/dp/B081RLZWG7/ref=sr_1_16?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YEELIGHT Monitor Light Bar, Monitor Lights with Touch Sensor, Rechargeable LED Computer Light, USB Powered 3 Switchable Light Modes, Dimmable Monitor Lamp, Computer Monitor Light for Desk/Office/Home</t>
+          <t>TERAISE 4PCS Fashion Anti-blue light Reading Glasses Men Women Computer Reader(2.5X)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39.99</t>
+          <t>21.99</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.6 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7,325</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfbXRmOjIwMDA0NjA1MjQ4NTU5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FYEELIGHT-Rechargeable-Computer-Switchable-Dimmable%2Fdp%2FB09NM3LH1T%2Fref%3Dsr_1_17_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26sr%3D8-17-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfbXRmOjIwMDAzOTcyOTU0ODA4MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FTERAISE-Anti-Blue-Computer-Blocking-Included%2Fdp%2FB082MDVRXJ%2Fref%3Dsr_1_17_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-17-spons%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Acer R240HY bidx 23.8” Full HD 1920 x 1080 IPS Zero Frame Home Office Monitor - 178° Wide View Angle - 16.7M - NTSC 72% Color Gamut - Low Blue Light - Acer Vision Care - Tilt Compatible - VGA HDMI DVI</t>
+          <t>Gaoye 5-Pack Reading Glasses Blue Light Blocking,Spring Hinge Readers for Women Men Anti Glare Filter Lightweight Eyeglasses (5-pack Light Black, 2.0)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>109.99</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.7 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14,467</t>
+          <t>73,537</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Acer-R240HY-bidx-23-8-Inch-Widescreen/dp/B0148NNKTC/ref=sr_1_18?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-18</t>
+          <t>https://www.amazon.com/Gaoye-Reading-Blocking-Lightweight-Eyeglasses/dp/B085G5BKSK/ref=sr_1_18?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Acer K202HQL bi 19.5” HD+ (1600 x 900) TN Monitor | 60Hz Refresh Rate | 5ms Response Time | NTSC 72% Color Gamut I Tilt VESA Compatible For Work or Home | HDMI Port 1.4 &amp; VGA Port</t>
+          <t>Blue Light Blocking Glasses Women Bluelight Blocker Computer Cateye Clear Cat Eye Eyeglasses Frame ANDWOOD AR003</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4.5 out of 5 stars</t>
-        </is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5,666</t>
+          <t>10,358</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Acer-K202HQL-Monitor-Refresh-Response/dp/B09MZMJRGJ/ref=sr_1_19?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-19</t>
+          <t>https://www.amazon.com/Blocking-Glasses-Bluelight-Computer-Eyeglasses/dp/B0B8HV66B5/ref=sr_1_19?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LG 27MP450-B Monitor 27-Inch Full HD (1920 x 1080) IPS Display, Tilt/Height, 3-Side Virtually Borderless Design, AMD FreeSync, 5ms GtG Response Time, Reader Mode, OnScreen Control with Screen Split</t>
+          <t>6 Pack Reading Glasses by BOOST EYEWEAR, Traditional Black Frames, with Spring Loaded Hinges</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>209.99</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -979,59 +980,4033 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LG-27MP450-B-Virtually-Borderless-FreeSync/dp/B09M5S1YW6/ref=sr_1_20?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-20</t>
+          <t>https://www.amazon.com/Reading-Glasses-EYEWEAR-Traditional-Comfort/dp/B07RZ9KV5S/ref=sr_1_20?keywords=glasses&amp;qid=1666745970&amp;qu=eyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%3D%3D&amp;sr=8-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CRUA 22 Inch Computer Monitor, Full HD(1920x1080P) 75HZ VA Desktop Display, 3 Sides Zero Frame 178° Wide View Angle PC Monitor with Eye-Care Technology, Support VESA, VGA&amp;HDMI Port-Black</t>
+          <t>Ronecool Reading Glasses for Women/Men Blue Light Blocking, Computer Readers Anti Eye Strain Blocker Eyeglasses 6 Packs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.3 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>53,744</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CRUA-Computer-1920x1080P-Technology-Port-Black/dp/B0B4BCPPNT/ref=sr_1_21?keywords=monitor&amp;qid=1666674072&amp;qu=eyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%3D%3D&amp;sr=8-21</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfYnRmOjIwMDA2Njk3Njg1Mzk5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FRonecool-Reading-Blocking-Computer-Eyeglasses%2Fdp%2FB09W57TT3N%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-21-spons%26psc%3D1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>InnoView 27 inch Monitor, FHD 1080P Gaming Display Ultra-Thin Screen HDMI VESA 100HZ 4000:1 Contrast Ratio Tilt Adjustable Computer Monitors Built-in Speakers</t>
+          <t>NoCry Safety Glasses with Clear Anti Fog Scratch Resistant Wrap-Around Lenses and Non-Slip Grips, UV Protection. Adjustable, White &amp; Pink Frames</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>159.99</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo1OTUwNDMxODA1NjM5Nzg3OjE2NjY2NzQwNzI6c3BfYnRmOjIwMDA5NTY0OTY4MDA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FInnoView-Monitor-Gaming-Display-Ultra-Thin%2Fdp%2FB0BDDJ56MP%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dmonitor%26qid%3D1666674072%26qu%3DeyJxc2MiOiI4LjU4IiwicXNhIjoiNy44NCIsInFzcCI6IjcuMjMifQ%253D%253D%26sr%3D8-22-spons%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NzU5NzQ5ODk3Mjc1NDI4OjE2NjY3NDU5NzA6c3BfYnRmOjIwMDA1NTA0MzAxOTA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FNoCry-Resistant-Wrap-Around-Protection-Adjustable%2Fdp%2FB01MRD8V5A%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dglasses%26qid%3D1666745970%26qu%3DeyJxc2MiOiI4LjE0IiwicXNhIjoiNy44NyIsInFzcCI6IjguMDEifQ%253D%253D%26sr%3D8-22-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Star rating</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Number of Ratings</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Product Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LeadsaiL Wireless Computer Mouse, 2.4G Portable Slim Cordless Mouse Less Noise for Laptop Optical Mouse with 4 Buttons, AA Battery Used, USB Mouse for Laptop, Desktop, MacBook</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,044</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfYXRmOjIwMDAyNDA4Mzk4NzIzMTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FLeadsaiL-Wireless-Computer-Portable-Cordless%2Fdp%2FB082HMPNFS%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-1-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wireless Mouse, E-YOOSO Computer Mouse 18 Months Battery Life Cordless Mouse, 5-Level 2400 DPI, 6 Button Ergo Wireless Mice, 2.4G Portable USB Wireless Mouse for Laptop, Mac, Chromebook, PC, Windows</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3,988</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfYXRmOjIwMDA2NzYwOTc5NTg2MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FWireless-YOOSO-Computer-Adjustable-Ergonomic%2Fdp%2FB094QH5MWN%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-2-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LED Wireless Mouse, Uiosmuph G12 Slim Rechargeable Wireless Silent Mouse, 2.4G Portable USB Optical Wireless Computer Mice with USB Receiver and Type C Adapter (Matte Black)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51,774</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Uiosmuph-Rechargeable-Portable-Computer/dp/B0836GXKKB/ref=sr_1_3?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Wireless Mouse, TECKNET Pro 2.4G Ergonomic Wireless Optical Mouse with USB Nano Receiver for Laptop,PC,Computer,Chromebook,Notebook,6 Buttons,24 Months Battery Life, 2600 DPI, 5 Adjustment Levels</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47,454</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/TeckNet-Ergonomic-Wireless-Chromebook-Adjustment/dp/B015NBTMMC/ref=sr_1_4?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amazon Basics 3-Button Wired USB Computer Mouse, Black</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66,258</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/AmazonBasics-3-Button-Wired-Computer-1-Pack/dp/B005EJH6RW/ref=sr_1_5?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Logitech M510 Wireless Computer Mouse for PC with USB Unifying Receiver - Graphite</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21,143</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-Wireless-Computer-Unifying-Receiver/dp/B087Z5WDJ2/ref=sr_1_6?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LeadsaiL Wireless Mouse Silent 2.4G USB Computer Mouse Compact Optical Cordless Mouse Mini Quiet Wireless Mice, Noiseless, 4 Buttons, 3 Adjustable DPI Mobile Mouse for PC/Laptop/ Windows/Mac/Linux</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,679</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfbXRmOjIwMDA0MzQ1NTI1NzQ0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FLeadsaiL-Computer-Wireless-Ergonomic-Adjustable%2Fdp%2FB087Q719JY%2Fref%3Dsr_1_7_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-7-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HP Wireless Mouse X3000 G2 (28Y30AA, Black) up to 15-Month Battery,Scroll Wheel, Side Grips for Control, Travel-Friendly, Blue LED, Powerful 1600 DPI Optical Sensor, Win XP,8, 11 Compatible</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16,345</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HP-Wireless-Mouse-X3000-28Y30AA/dp/B08NM2GF2V/ref=sr_1_8?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Razer DeathAdder Essential Gaming Mouse: 6400 DPI Optical Sensor - 5 Programmable Buttons - Mechanical Switches - Rubber Side Grips - Classic Black</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3,687</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Razer-DeathAdder-Essential-Gaming-Mouse/dp/B094PS5RZQ/ref=sr_1_9?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LED Wireless Mouse, Slim Rechargeable Silent Bluetooth Mouse, Portable USB Optical 2.4G Wireless Bluetooth Two Mode Computer Mice with USB Receiver and Type C Adapter (Black)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,859</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Rechargeable-Bluetooth-Portable-Computer/dp/B08SMQB6TF/ref=sr_1_10?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wireless Mouse, Vssoplor 2.4G Slim Portable Computer Mice with Nano Receiver for Notebook, PC, Laptop, Computer-Black and Gold</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12,373</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Vssoplor-Portable-Computer-Computer-Black/dp/B098S48QWM/ref=sr_1_11?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HP Wireless Mouse X3000 G2 (28Y30AA, Black) up to 15-Month Battery,Scroll Wheel, Side Grips for Control, Travel-Friendly, Blue LED, Powerful 1600 DPI Optical Sensor, Win XP,8, 11 Compatible</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16,345</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfbXRmOjIwMDA2Mjk0ODc0MDQ5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FHP-Wireless-Mouse-X3000-28Y30AA%2Fdp%2FB08NM2GF2V%2Fref%3Dsr_1_12_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-12-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Logitech M170 Wireless Mouse, 2.4 GHz with USB Mini Receiver, Optical Tracking, 12-Months Battery Life, Ambidextrous PC/Mac/Laptop - Black</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30,855</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-Wireless-3-Button-Optical-Receiver/dp/B074L9L5KZ/ref=sr_1_13?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Logitech M720 Triathlon Multi-Device Wireless Mouse, Bluetooth, USB Unifying Receiver, 1000 DPI, 8 Buttons, 2-Year Battery, Compatible with Laptop, PC, Mac, iPadOS - Black</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6,565</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-Triathlon-Bluetooth-Hyper-Fast-Scrolling/dp/B087Z6LSHW/ref=sr_1_14?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Logitech M185 Wireless Mouse, 2.4GHz with USB Mini Receiver, 12-Month Battery Life, 1000 DPI Optical Tracking, Ambidextrous, Compatible with PC, Mac, Laptop - Black</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-M185-Wireless-Mouse-910-003888/dp/B00P43PCI8/ref=sr_1_15?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wireless Mouse, E-YOOSO Computer Mouse 18 Months Battery Life Cordless Mouse, 5-Level 2400 DPI, 6 Button Ergo Wireless Mice, 2.4G Portable USB Wireless Mouse for Laptop, Mac, Chromebook, PC, Windows</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,988</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-YOOSO-Computer-Adjustable-Ergonomic/dp/B094QH5MWN/ref=sr_1_16?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seenda Wireless Mouse, 2.4G Noiseless Mouse with USB Receiver - Portable Computer Mice for PC, Tablet, Laptop with Windows System - Mint Green</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>109,655</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfbXRmOjIwMDA5MDczODU4NTQ5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2Fseenda-Wireless-Noiseless-Receiver-Portable%2Fdp%2FB07H8TJMX7%2Fref%3Dsr_1_17_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-17-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Logitech M705 Marathon Wireless Mouse, 2.4 GHz USB Unifying Receiver, 1000 DPI, 5-Programmable Buttons, 3-Year Battery, Compatible with PC, Mac, Laptop, Chromebook - Black</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,651</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-M705-Wireless-Marathon-Mouse/dp/B087Z733CM/ref=sr_1_18?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Logitech Signature M650 L Full Size Wireless Mouse - For Large Sized Hands, 2-Year Battery, Silent Clicks, Customizable Side Buttons, Bluetooth, Multi-Device Compatibility - Black</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3,593</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Logitech-Signature-M650-Wireless-Mouse/dp/B09KX9P829/ref=sr_1_19?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wireless Gaming Mouse- USB Cordless PC Computer Mice with LED Blue Backlit, Ergonomic Silent Gamer Laptop Mouse with 7 Silent Click Buttons, 5 Adjustable DPI Plug &amp; Play for PC, Windows, Mac</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Wireless-Cordless-Computer-Ergonomic-Adjustable/dp/B09QS2GS2H/ref=sr_1_20?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HOTWEEMS Wireless Mouse, D-09 Computer Mouse USB Cordless Mice for Laptop, Ergo Grips, Lightspeed 5-Level 2400 DPI, 16 Months Battery, Portable for PC Mac Chromebook, 6 Button, Stormy Black</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4,255</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HOTWEEMS-D-09-Wireless-Mouse-Laptop/dp/B09JG4KJN5/ref=sr_1_21?keywords=mouse&amp;qid=1666745978&amp;qu=eyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%3D%3D&amp;sr=8-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Amazon Basics 3-Button USB Wired Mouse - Black</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NTczMTg3MDY5NjkzNzQxOjE2NjY3NDU5Nzg6c3BfYnRmOjIwMDAyNDUwNzIxNDc5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FAmazon-Basics-3-Button-Wired-Quiet%2Fdp%2FB08P6FXKP9%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dmouse%26qid%3D1666745978%26qu%3DeyJxc2MiOiI2LjYzIiwicXNhIjoiNi4yNSIsInFzcCI6IjUuODgifQ%253D%253D%26sr%3D8-22-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Star rating</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Number of Ratings</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Product Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yvnicll Pet Food Can Lids , Universal Silicone Can Lids, Can Covers Most Standard Size Dog and Cat Can Tops（6 Pack）</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfYXRmOjIwMDA1NTA0NDA0Njc5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FYvnicll-Universal-Silicone-Covers-Standard%2Fdp%2FB09VC3MTPF%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-1-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Purina Pro Plan High Protein Cat Food With Probiotics for Cats, Chicken and Rice Formula - 16 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>46.98</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6,008</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfYXRmOjIwMDAwOTYyMDI3MzI0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FPurina-Pro-Plan-Chicken-Formula%2Fdp%2FB001VIY9B6%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-2-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Purina ONE Natural Dry Cat Food, Tender Selects Blend With Real Chicken - 22 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27,780</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfYXRmOjIwMDA0NDM4NDc5MDA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FPurina-Tender-Selects-Blend-Chicken%2Fdp%2FB005LMVGVY%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-3-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Purina Pro Plan Urinary Tract Cat Food, Chicken and Rice Formula - 22 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfYXRmOjIwMDAxNDM3NTI5MTY0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FPurina-Pro-Plan-Urinary-Chicken%2Fdp%2FB07CWW23NW%2Fref%3Dsr_1_4_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-4-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Purina Friskies Gravy Wet Cat Food Variety Pack, Poultry Shreds, Meaty Bits &amp; Prime Filets - Cans of 5.5 oz. each, (Pack of 32)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30,514</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Poultry-Adult-Variety/dp/B00283MYSI/ref=sr_1_5?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Purina ONE Natural Dry Cat Food, Tender Selects Blend With Real Salmon - 7 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27,780</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-ONE-Tender-Selects-Salmon/dp/B000R4H2MI/ref=sr_1_6?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Purina Friskies Wet Cat Food Variety Pack, Oceans of Delight Flaked &amp; Prime Filets - 5.5 oz. - 40 Cans (1 Pack)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59,192</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Variety-Oceans-Delight/dp/B07K9CCRW2/ref=sr_1_7?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Meow Mix Original Choice Dry Cat Food, 22 Pounds</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32,188</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Meow-Mix-Original-Choice-Food/dp/B01LZSZ8JF/ref=sr_1_8?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Seafood Grilled Collection - 3 oz. 24 Cans (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29,625</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Grilled-Collection/dp/B001STX13U/ref=sr_1_9?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Gravy Lovers Poultry &amp; Beef Feast Collection - 3 Ounce (Pack of 24)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40,964</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Poultry-Collection/dp/B005OB3E30/ref=sr_1_10?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Purina Friskies Pate Wet Cat Food Variety Pack, Seafood &amp; Chicken Pate Favorites - (5.5 Ounce (Pack of 40)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24,143</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Seafood-Chicken-Variety/dp/B0777NRJ2N/ref=sr_1_11?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hill's Science Diet Dry Cat Food, Adult, Urinary &amp; Hairball Control, Chicken Recipe, 15.5 Lb Bag</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>53.99</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11,009</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Science-Diet-Urinary-Hairball-Control/dp/B00ZQYGSTM/ref=sr_1_12?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Purina Friskies Gravy Wet Cat Food Variety Pack, Meaty Bits - (24) 5.5 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6,932</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Meaty-Adult-Variety/dp/B002CJG2H2/ref=sr_1_13?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Purina Friskies Dry Cat Food, Gravy Swirlers - 3.15 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8,787</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Gravy-Swirlers-Adult/dp/B0727R5C5Q/ref=sr_1_14?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Purina Cat Chow Naturals With Added Vitamins, Minerals and Nutrients Dry Cat Food, Naturals Original - 13 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13,854</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Cat-Chow-Naturals-Original/dp/B005FVLAKI/ref=sr_1_15_f3_0o_fs?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SHEBA Wet Cat Food Pate Variety Pack, Signature Seafood, Delicate Salmon and Tender Whitefish &amp; Tuna Entrees,. PERFECT PORTIONS Twin-Pack Trays,48 serving, 2.6 Oz (Pack of 24)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35,518</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sheba-Wet-Food-Signature-Whitefish/dp/B075QK5SP2/ref=sr_1_16?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Indoor Hairball Control Natural Adult Dry Cat Food, Chicken &amp; Brown Rice 7-lb</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,682</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAwNzE2NjY1Mjc0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBlue-Buffalo-Hairball-Control-Natural%2Fdp%2FB00MHU2MVQ%2Fref%3Dsr_1_17_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-17-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Acana Dry Cat Food for Indoor Cats, Indoor Entrée, Chicken, Turkey, Whole Herring, and Rabbit, 10lb</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,784</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAzMTIxNzg5MDE1MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FACANA-Indoor-Entr%25C3%25A9e-Protein-Rich-Premium%2Fdp%2FB086TWLFTY%2Fref%3Dsr_1_18_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-18-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Tastefuls Weight Control Natural Adult Dry Cat Food, Chicken 15lb bag</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4,248</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAxMjYzODg2Nzg0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBlue-Buffalo-Control-Natural-Chicken%2Fdp%2FB00KX6OB06%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-19-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Wilderness High Protein, Natural Adult Indoor Hairball Control Dry Cat Food, Chicken 11-lb</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,556</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAxMjY0NjIxNzQ0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBlue-Buffalo-Wilderness-Protein-Hairball%2Fdp%2FB00MHU2XFG%2Fref%3Dsr_1_20_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-20-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Grain Free Pate Wet Cat Food Variety Pack, Seafood Classic Pate Collection - 3 oz. Cans, 24 Count (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23,943</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Seafood-Classic/dp/B0010B3FIC/ref=sr_1_21?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Grain Free Pate Wet Cat Food Variety Pack, Seafood Classic Pate Collection - 3 oz. Cans, 3 Ounce (Pack of 30)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12,252</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Fancy-Feast-Sea-Variety-Pack/dp/B00JT3TP1O/ref=sr_1_22?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Grain Free Pate Wet Cat Food Variety Pack, Poultry &amp; Beef Collection - 3 oz. Cans, 30 Count (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22,534</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Classic-Collection/dp/B07CTBXRXD/ref=sr_1_23?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rachael Ray Nutrish Indoor Complete Premium Natural Dry Cat Food, Chicken with Lentils &amp; Salmon Recipe, 14 Pounds (Packaging May Vary)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19,087</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Rachael-Ray-Nutrish-Complete-Chicken/dp/B06WLH71PS/ref=sr_1_24?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SHEBA Wet Cat Food Cuts in Gravy Variety Pack, Roasted Chicken Entree and Tender Turkey Entree, PERFECT PORTIONS Twin-Pack Trays, 2.6 Ounce (Pack of 12)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35,954</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sheba-Portions-Wet-Food-Twin-Pack/dp/B01N0R38WI/ref=sr_1_25?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Poultry &amp; Beef Grilled Collection - 3 oz. - 24 Cans</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10,907</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Grilled-Collection/dp/B0010B6IFY/ref=sr_1_26?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Delights With Cheddar Grilled Collection - 3 Ounce (Pack of 24)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22,987</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Delights-Collection/dp/B00J2DRUYA/ref=sr_1_27?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>IAMS PROACTIVE HEALTH Adult Healthy Dry Cat Food with Chicken Cat Kibble, 22 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13,957</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Iams-Proactive-Health-Healthy-Chicken/dp/B01BMBQ1MQ/ref=sr_1_28?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Wet Cat Food Variety Pack, Creamy Delights Poultry &amp; Seafood Collection - 3 oz. - 24 Cans (1 Pack)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25,478</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Delights-Variety/dp/B07CWTP5YD/ref=sr_1_29?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Purina ONE Natural Cat Food for Hairball Control, +PLUS Hairball Formula - 16 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8,894</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Hairball-Formula-Adult-Food/dp/B000634CSW/ref=sr_1_30?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hill's Science Diet Adult Indoor Cat Food, Chicken Recipe Dry Cat Food, 15.5 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12,261</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Science-Diet-Indoor-Chicken-Recipe/dp/B003MA8P02/ref=sr_1_31?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Pate Wet Cat Food Variety Pack, Savory Centers Pate With a Gravy Center - 3 oz. Pull-Top Cans, 12 count (Pack of 2)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8,711</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Variety-Centers/dp/B07QC8CBRY/ref=sr_1_32?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Wilderness High Protein, Natural Adult Weight Control Dry Cat Food, Chicken 11-lb</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1,359</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAxMjU3NDk2NzM0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBuffalo-Wilderness-Protein-Natural-Control%2Fdp%2FB00B87GRB0%2Fref%3Dsr_1_33_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-33-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Wilderness Rocky Mountain Recipe High Protein, Natural Adult Dry Cat Food, Red Meat 10-lb</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,727</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAxMjY0NjIxNzg0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBlue-Buffalo-Wilderness-Mountain-Protein%2Fdp%2FB00JN9GDZ0%2Fref%3Dsr_1_34_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-34-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Purina Beyond Grain Free, Natural Dry Cat Food, Grain Free White Meat Chicken &amp; Egg Recipe - 16 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>57.86</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDAxMzMzOTAxNzU0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FPurina-Beyond-Grain-Chicken-Recipe%2Fdp%2FB07DWJYPRV%2Fref%3Dsr_1_35_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-35-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Purina Pro Plan Allergen Reducing, High Protein Cat Food, LIVECLEAR Salmon and Rice Formula - 16 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2,636</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4NDgwMDY1MjA4NTc0ODE4OjE2NjY3NDU5ODc6c3BfbXRmOjIwMDA5NDI4NzAyMDY0MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FPurina-Pro-Plan-Probiotics-LIVECLEAR%2Fdp%2FB0848JVM93%2Fref%3Dsr_1_36_sspa%3Fcrid%3D1I1IKXO35VWZW%26keywords%3Dcat%2Bfood%26qid%3D1666745987%26qu%3DeyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%253D%253D%26sprefix%3Dc%252Caps%252C140%26sr%3D8-36-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Purina ONE Sensitive Skin &amp; Stomach With Real Turkey, Natural Adult Dry Cat Food</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18,289</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Sensitive-Stomach-Formula-Adult/dp/B0002MLAEQ/ref=sr_1_37?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Royal Canin Indoor Adult Dry Cat Food, 7 lb bag</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4,547</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Royal-Canin-Feline-Nutrition-7-Pound/dp/B000YKD6UW/ref=sr_1_38?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Purina Pro Plan Allergen Reducing, High Protein Cat Food, LIVECLEAR Chicken and Rice Formula - 3.5 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2,070</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Pro-Plan-Probiotics-LIVECLEAR/dp/B0848R7D13/ref=sr_1_39?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Purina ONE High Protein, Healthy Weight Dry Cat Food, +Plus Ideal Weight With Turkey - 7 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3,595</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Healthy-Metabolism-Adult-Food/dp/B00GHTLSBS/ref=sr_1_40?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IAMS PROACTIVE HEALTH Adult Indoor Weight Control &amp; Hairball Care Dry Cat Food with Chicken &amp; Turkey Cat Kibble, 7 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>31,993</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Iams-Proactive-Hairball-Chicken-Packaging/dp/B01BKYFR7K/ref=sr_1_41_f3_0o_fs?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Purina Friskies Wet Cat Food Variety Pack, Surfin' &amp; Turfin' Prime Filets Favorites - 5.5 oz. - 40 Cans (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>33,227</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Surfin-Favorites-Variety/dp/B0777J8V5J/ref=sr_1_42?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Purina ONE Natural, Low Fat, Weight Control, Indoor Dry Cat Food, +Plus Indoor Advantage - 16 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18,612</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Indoor-Advantage-Adult-Food/dp/B000WFKTWM/ref=sr_1_43_f3_0o_fs?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Poultry &amp; Beef Grilled Collection - 3 Ounce (Pack of 30)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5,253</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Fancy-Feast-Land-Variety-Pack/dp/B00DIAXM2M/ref=sr_1_44?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Wet Cat Food Variety Pack, Medleys Poultry Collection with Garden Greens in Sauce - (30) 3 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2,272</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Variety-Collection/dp/B0828KVWRM/ref=sr_1_45?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Wilderness High Protein, Natural Adult Dry Cat Food, Chicken 6-lb</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16,072</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Blue-Buffalo-Wilderness-Protein-Natural/dp/B00X04EBJY/ref=sr_1_46?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hill's Science Diet Dry Cat Food, Adult, Chicken Recipe, 16 lb Bag</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11,171</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Science-Diet-Optimal-Chicken-Recipe/dp/B01BKECCO6/ref=sr_1_47?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Instinct Original Grain Free Recipe with Real Chicken Natural Dry Cat Food, 11 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>42.90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4,887</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Instinct-Original-Chicken-Natural-NatureS/dp/B06XDP4H17/ref=sr_1_48?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Purina Friskies Indoor Wet Cat Food Variety Pack, Indoor - (24) 5.5 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12,737</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Indoor-Adult-Variety/dp/B07D1G19KX/ref=sr_1_49?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Tastefuls Natural Flaked Wet Cat Food Variety Pack, Tuna, Chicken, Fish &amp; Shrimp Entrées in Gravy 3-oz Cans (Pack of 12)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10,160</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Blue-Buffalo-Tastefuls-Natural-Variety/dp/B08MLBGGB5/ref=sr_1_50_f3_0o_fs?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Purina Friskies Pate Wet Cat Food, Poultry Platter - (24) 5.5 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1,671</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Pate-Poultry-Platter/dp/B002CJAQ56/ref=sr_1_51?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Purina Friskies Ocean Favorites Wet Cat Food Pate and Meaty Bits Variety Pack with Salmon and Tuna - (24) 5.5 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>not shown on search</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4,580</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Natural-Variety-Favorites/dp/B08764ZY97/ref=sr_1_52?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Purina Friskies Wet Cat Food, Shreds With Ocean Whitefish &amp; Tuna in Sauce - (24) 5.5 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,819</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Friskies-Shreds-Ocean-Whitefish/dp/B002CJASEU/ref=sr_1_53?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Purina Fancy Feast Gravy Wet Cat Food Variety Pack, Medleys Primavera Collection - (2 Packs of 12) 3 oz. Cans</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4,168</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Fancy-Feast-Primavera-Collection/dp/B0099FWKQO/ref=sr_1_54?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CRAVE Grain Free Adult High Protein Natural Dry Cat Food with Protein from Salmon &amp; Ocean Fish, 10 lb. Bag</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7,952</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Crave-Grain-Protein-Salmon-Ocean/dp/B0713YW5FZ/ref=sr_1_55?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Wilderness High Protein, Natural Adult Indoor Dry Cat Food, Chicken 5-lb</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7,865</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Buffalo-Wilderness-Protein-Natural-Chicken/dp/B00QT4X1OI/ref=sr_1_56?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Meow Mix Tender Centers Dry Cat Food, Salmon &amp; Chicken, 13.5 Pound Bag</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>18,162</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Meow-Mix-Centers-13-5-Pound-Chicken/dp/B007K6CPU0/ref=sr_1_57_f3_0o_fs?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Meow Mix Indoor Health Dry Cat Food, 6.3 Pound Bag</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3,413</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Meow-Mix-Indoor-Health-Food/dp/B000QSKB7S/ref=sr_1_58?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-58</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Purina Cat Chow High Protein Dry Cat Food, Complete - (4) 3.15 lb. Bags</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3,286</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Purina-Cat-Chow-Complete-Food/dp/B07DHTD6JP/ref=sr_1_59?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Blue Buffalo Indoor Hairball &amp; Weight Control Natural Adult Dry Cat Food, Chicken &amp; Brown Rice 7-lb</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7,682</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Blue-Buffalo-Hairball-Control-Natural/dp/B00NW1LGRU/ref=sr_1_60?crid=1I1IKXO35VWZW&amp;keywords=cat+food&amp;qid=1666745987&amp;qu=eyJxc2MiOiI4LjQ2IiwicXNhIjoiOC4yNCIsInFzcCI6IjguMjYifQ%3D%3D&amp;sprefix=c%2Caps%2C140&amp;sr=8-60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Star rating</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Number of Ratings</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Product Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pacific Pups Products 18 Piece Dog Toy Set with Dog Chew Toys, Rope Toys for Dogs, Plush Dog Toys and Dog Treat Dispenser Ball - Supports Non-Profit Dog Rescue</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfYXRmOjIwMDA5MzkyMzc0MzYzMTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;url=%2FPacific-Pups-Products-Piece-Dispenser%2Fdp%2FB0876PRL18%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-1-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dog Chew Toys for Aggressive Chewers, Indestructible Tough Durable Squeaky Interactive Dog Toys, Puppy Teeth Chew Corn Stick Toy for Small Meduium Large Breed</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.1 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6,454</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Toothbrush-Interactive-Squeaky-Aggressive-Chewers/dp/B08NJJQ1KW/ref=sr_1_2?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Multipet Gumby Plush Filled Dog Toy, Green, 9 inch (Pack of 1)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43,099</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipet-Gumby-Plush-Dog-inch/dp/B00A80X19E/ref=sr_1_3?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dog Toys/Squeaky Dog Toys/Large Dog Toys/Plush Dog Toys/Big Dog Toys/Stuffed Dog Toys/Dog Toys for Large Dogs/Durable Dog Toys/Puppy Chew Toys/Dog Chew Toys for Small, Medium, Large Dogs</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Squeaky-Large-Stuffed-Durable-Medium/dp/B0B1LVKG8D/ref=sr_1_4?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Best Pet Supplies Crinkle Dog Toy for Small, Medium, and Large Breeds, Cute No Stuffing Duck with Soft Squeaker, Fun for Indoor Puppies and Senior Pups, Plush No Mess Chew and Play - Yellow</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Best-Pet-Supplies-Stuffing-Squeaker/dp/B09BBM5CX8/ref=sr_1_5?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Best Pet Supplies 2-in-1 Stuffless Squeaky Dog Toys with Soft, Durable Fabric for Small, Medium, and Large Pets, No Stuffing for Indoor Play, Supports Active Biting and Play - 1Wild Duck, Small</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22,851</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Best-Pet-Supplies-Stuffless-Squeak/dp/B00G5M75UK/ref=sr_1_6?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Multipet Plush Dog Toy, Lambchop, 10", White/Tan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38,973</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipet-Plush-Dog-Toy-Lambchop/dp/B003XVYKVI/ref=sr_1_7?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chuckit! Indoor Ball Dog Toy, Soft Dog Toy (4.75 Inch)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25,438</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Chuckit-Indoor-Small-Puppies-Orange/dp/B004T5X0N6/ref=sr_1_8?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Benebone Wishbone Durable Dog Chew Toy for Aggressive Chewers, Real Bacon, Made in USA, Medium</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75,297</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Benebone-Wishbone-Durable-Aggressive-Chewers/dp/B00CPDWT2M/ref=sr_1_9?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dog Chew Toys/Tough Dog Toys for Aggresive Chewers/Dog Toys for Large Dogs/Durable Dog Toys/Heavy Duty Dog Toys/Large Dog Toys/Indestructible Dog Toys/Tough Dog Chew Toys for Medium/Large Dogs Breed</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.0 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,554</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Durable-Tough-Medium-Interactive-Friends/dp/B09N36NMQY/ref=sr_1_10?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HGB Squeaky Dog Toys, Octopus No Stuffing Crinkle Plush Dog Chew Toys for Puppy Teething, Pet Training and Entertaining, Durable Interactive Dog Toys for Puppies, Small, Medium, and Large Dogs, 2 Pack</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,256</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/HGB-Stuffing-Teething-Entertaining-Interactive/dp/B098BB1HGN/ref=sr_1_11?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dog Puzzle Toys, Squeaky Treat Dispensing Dog Enrichment Toys for IQ Training and Brain Stimulation, Interactive Mentally Stimulating Toys as Gifts for Puppies, Cats, Small, Medium, Large Dogs</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Dispensing-Enrichment-Stimulation-Interactive-Stimulating/dp/B09XXPCB4T/ref=sr_1_12?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sedioso Dog Toys, Dog Plush Toy for Large Breed, Cute Squeaky Dog Toys with Crinkle Paper , Dog Chew Toys for Puppy, Small, Middle, Big Dogs (Donkey(Grey))</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,349</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sedioso-Stuffed-Donkey-Squeaky-Middle/dp/B08DCSRJFT/ref=sr_1_13?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Multipet's Original Loofa Jumbo Dog Toy in Assorted Colors, 24-Inch</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,273</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipets-Original-Assorted-Colors-24-Inch/dp/B000I7TUKG/ref=sr_1_14?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ChuckIt! Ultra Ball, Medium (Pack of 2)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>119,691</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/ChuckIt-Ultra-Ball-Medium-Inch/dp/B000F4AVPA/ref=sr_1_15?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dog Toys/Stuffed Dog Toys/Squeaky Dog Toys/Durable Dog Toys/Large Dog Toys/Big Dog Toys/Large Dog Toys/Dog Toys for Large Dogs/Small Dog Toys/Dog Toys for Puppy, Small, Medium, Large Dogs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Stuffed-Squeaky-Durable-Large-Medium/dp/B0BBMQ2HTX/ref=sr_1_16?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fabdog, inc. Floppy Hippo Dog Toys (Large)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.1 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA2ODU4NzYxMTU5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2Ffabdog-inc-Floppy-Hippo-Large%2Fdp%2FB07WF9JM5V%2Fref%3Dsr_1_17_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-17-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BOSOZOKU Dog Chew Toys 6 Pack Dog Toy Set Durable Dog Rope Toys Dog Balls Rubber Dog Toys Gifts Puppy Teething Chew Toys for Small Medium Dogs Fetch Tug of War</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA4NTIyMzAzNTA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBOSOZOKU-Durable-Rubber-Teething-Medium%2Fdp%2FB09PRGPJLF%2Fref%3Dsr_1_18_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-18-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pacific Pups Products - Dog Rope Toys for Aggressive CHEWERS - Set of 11 Heavy Duty Dental Dog Chew Toys, Cotton Puppy Teething Chew Tug Toy - Benefits NONPROFIT Dog Rescue</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13,846</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA5MzkyMzc0MzczMTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FPacific-Pups-Products-supporting-pacificpuprescue-com%2Fdp%2FB071JMC5M4%2Fref%3Dsr_1_19_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-19-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BARMI Dog Toys Stuffed Dog Chew Toys with Treat Dispensing Ball Squeaky Interactive Dog Toys for Small and Medium Dogs Puppy (Parrot)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA3OTI1NTA0MTcxMTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBARMI-Squeaky-Interactive-Stuffed-Medium%2Fdp%2FB08Q4CCHP6%2Fref%3Dsr_1_20_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-20-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Multipet Swingin Slevin XXL Oversized 27-inch Green Frog Plush Dog Toy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,358</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipets-Swingin-Slevin-Oversized-30-Inch/dp/B005F3BC8Q/ref=sr_1_21?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Star Pups Coffee Dog Toy Pup'kin Spice Latte - Fall Dog Toy Funny Dog Toys - Plush Squeaky Holiday Dog Toys for Medium, Small and Large - Cute Dog Gifts for Dog Birthday - Cool Stuffed Parody Dog Toys</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.8 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Star-Coffee-Pupkin-Spice-Latte/dp/B09GPT3RYG/ref=sr_1_22?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Aipper Dog Puppy Toys 20 Pack, Puppy Chew Toys for Fun and Teeth Cleaning, Plush Squeaky Toys, Dog Treat Dispenser Ball, Tug of War Toys, Puppy Teething Toys, Dog Rope Toys for Medium to Small Dogs</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Aipper-Cleaning-Squeaky-Dispenser-Teething/dp/B0989B2C7Y/ref=sr_1_23?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Aipper Dog Puppy Toys 18 Pack, Puppy Chew Toys for Fun and Teeth Cleaning, Dog Squeak Toys, IQ Treat Ball, Tug of War Toys, Puppy Teething Toys, Dog rope toys pack for Medium to Small Dogs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8,754</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Aipper-Playtime-Cleaning-Included-Teething/dp/B072NXTSF3/ref=sr_1_24?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sedioso Dog Toys, Multi-Function Dog Chew Toy for Teeth Cleaning, Dog Food Dispensing Toys for Small, Medium, Large Dogs (Turtle, Grey)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2,710</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sedioso-Aggressive-Chewers-Dispensing-Cleaning/dp/B08JKJ6JWS/ref=sr_1_25?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chuckit! Ultra Fetch Stick Outdoor Dog Toys</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5,079</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Chuckit-Ultra-Fetch-Stick-Dog/dp/B07SK3R2C3/ref=sr_1_26?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UPSKY Dog Rope Toys 2 Nearly Indestructible Dog Toys, Dog Toy for Medium to Large Breed, Dental Cleaning Chew Toys, Dog Tug Toy for Boredom, Dog Grinding Teeth, Dog Rope Toy for Aggressive Chewers</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/UPSKY-Grinding-Indestructible-Cleaning-Aggressive/dp/B09DC6HFFX/ref=sr_1_27?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rmolitty Dog Toys for Aggressive Chewers Large Breed, Indestructible Interactive Tough Dog Chew Toys for Medium Large Dogs, Non-Toxic Natural Rubber &amp; Nylon Durable Teething Double-Ring Chew Toys</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1,870</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Rmolitty-Aggressive-Indestructible-Interactive-Double-Ring/dp/B09H6WWXY7/ref=sr_1_28?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CPYOSN Dog Squeaky Toys Octopus - No Stuffing Crinkle Plush Dog Toys for Puppy Teething, Durable Interactive Dog Chew Toys for Small, Medium and Large Dogs Training and Reduce Boredom, 2 Pack</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3,622</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/CPYOSN-Dog-Squeaky-Toys-Octopus/dp/B08G44DRSC/ref=sr_1_29?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Nocciola Dog Squeaky Toys Cute Plush Toys for Small Medium Large Dogs, Dog Chew Toys for Aggressive Chewer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9,651</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Nocciola-Squeaky-Plush-Medium-Dog-Pet-Toys/dp/B07R3KQMMX/ref=sr_1_30?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Wobble Wag Giggle Ball, Interactive Dog Toy, Fun Giggle Sounds When Rolled or Shaken, Pets Know Best, As Seen On TV</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.1 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>77,932</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Allstar-Innovations-Wobble-Giggle-Ball/dp/B00PQ5UH0C/ref=sr_1_31?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nylabone Real Wood Stick Strong Dog Stick Chew Toy Maple Bacon Medium/Wolf (1 Count)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5,653</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Nylabone-Stick-Strong-Maple-Bacon/dp/B07FKVZSLM/ref=sr_1_32?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Interactive Flirt Pole Toy for Dogs Chase and Tug of War,Durable Teaser Wand with Pet Fleece Rope Tether Lure Toy to Outdoor Exercise &amp; Training for Small Medium Large Dogs (Blue/Red, POLE-35 inches)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1,881</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA1Njc2MTA5MDY5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FInteractive-Durable-Outdoor-Exercise-Training%2Fdp%2FB086L77P6B%2Fref%3Dsr_1_33_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-33-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DODODOLA Stuffed Dog Toys Durable Plush Dog Toy with Crinkle Paper Cute Elephant Squeaky Dog Toys Dog Chew Toys for Medium Large Breed</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA2NTE2MjkwMDA5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FDODODOLA-Stuffed-Durable-Crinkle-Elephant%2Fdp%2FB09TXQ6BR1%2Fref%3Dsr_1_34_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-34-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cat Laser Toy, Dog Laser Pointer for Interactive Toys for Indoor Cats Dogs, Long Range 7 Modes Lazer Projection Playpen for Kitten Outdoor Pet Chaser Tease Stick Training Exercise,USB Recharge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA1ODQ5MDI4NDU5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FInteractive-Projection-Training-Exercise-Recharge%2Fdp%2FB09S3HQPW3%2Fref%3Dsr_1_35_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-35-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dog Puzzle Teething Toys Ball Nontoxic Durable Dog IQ Chew Toys for Puppy Small Large Dog Teeth Cleaning/Chewing/Playing/Treat Dispensing Dog Toys (2 Pack)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6,732</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfbXRmOjIwMDA0ODY4ODQ3ODg5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;url=%2FBojafa-Teething-Durable-Cleaning-Dispensing%2Fdp%2FB06W2P3QF3%2Fref%3Dsr_1_36_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-36-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Zeaxuie 9 Pack Luxury Puppy Toys for Teething Small Dogs, Cute Puppy Chew Toys with Squeaky Toys, IQ Treat Ball and More Rope Dog Chew Toys</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3,077</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Zeaxuie-Luxury-Puppy-Teething-Squeaky/dp/B094XG29MW/ref=sr_1_37?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Outward Hound Hedgehogz Plush Dog Toy, Small</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19,019</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Hedgehogz-Squeak-Grunt-Plush-Dog/dp/B0002HBLKE/ref=sr_1_38?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chuckit! Ultra Tug Dog Toy, Medium Fetch and Tug Toy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13,116</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Chuckit-231201-Medium-Ultra-Tug/dp/B008APMKO6/ref=sr_1_39?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Multipet Look Who's Talking Cow Dog Toy, 7'' x 4'' Dog Toy (27006)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18,228</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipet-Look-Whos-Talking-Cow/dp/B0002ARTWU/ref=sr_1_40?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nylabone Power Chew Textured Dog Chew Ring Toy Ring Flavor Medley X-Large/Souper (1 Count)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>42,256</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Nylabone-Textured-Durable-Aggressive-Chewers/dp/B003SN5YKC/ref=sr_1_41?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Squeak Dog Toys Stress Release Game for Boredom, Dog Puzzle Toy IQ Training, Dog Snuffle Toys Foraging Instinct Training Suitable for Small Medium and Large Dogs</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.0 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Release-Training-Foraging-Instinct-Suitable/dp/B09Q12RSQY/ref=sr_1_42?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KIPRITII Dog Chew Toys for Puppy - 20 Pack Puppies Teething Chew Toys for Boredom, Pet Dog Toothbrush Chew Toys with Rope Toys, Treat Balls and Dog Squeaky Toy for Puppy and Small Dogs</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12,752</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/KIPRITII-Chew-Toys-Aggressive-Chewers/dp/B086YQT1BV/ref=sr_1_43?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SUNKYPUP Squeaky Dog Toys, Plush Squid Dog Chew Toy with Rope for Small, Medium and Large Dogs (2 Pack)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SUNKYPUP-Squeaky-Plush-Squid-Medium/dp/B0B6RNBXVN/ref=sr_1_44?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Outward Hound Squeaker Matz Plush Gator Dog Toy, XL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11,213</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Outward-Hound-Squeaker-Squeaky-Multi-Squeaker/dp/B001WAFT80/ref=sr_1_45?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Outward Hound Hide A Squirrel Plush Dog Toy Puzzle, Small</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.6 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13,261</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Squirrel-Interactive-Puzzle-Outward-Hound/dp/B000HHQ3AM/ref=sr_1_46?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MewaJump Dog Chew Toys, Durable Rubber Dog Toys for Aggressive Chewers, Cactus Tough Toys for Training and Cleaning Teeth, Interactive Dog Toys for Small/Medium Dog</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7,312</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/MewaJump-Aggressive-Training-Cleaning-Interactive/dp/B088D3GZSV/ref=sr_1_47?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalousie 5 Pack Dog Toys Dog Plush Toys Assortment Value Bundle Dog Squeaky Toys Assortment Puppy Pet Mutt Dog Toy Dog Squeak Toy for Medium Large Dogs</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3,017</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Jalousie-Assortment-Bundle-Squeaky-Squeak/dp/B08RCSMTXV/ref=sr_1_48?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Pet Craft Supply Hide and Seek Plush Dog Toys Crinkle Squeaky Interactive Burrow Activity Puzzle Chew Fetch Treat Hiding Brain Stimulating Cute Funny Toy Bundle Pack - Burrito</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3,560</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Pet-Craft-Supply-Interactive-Stimulating/dp/B08VNM5YVM/ref=sr_1_49?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>goDog Dinos Frills Squeaker Plush Pet Toy for Dogs &amp; Puppies, Soft &amp; Durable, Tough &amp; Chew Resistant, Reinforced Seams - Gray, Large</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>24,550</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/goDog-Dinos-Triceratops-Guard-Technology/dp/B0035XWPZM/ref=sr_1_50?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nocciola 5 pcs Crinkle Dog Squeaky Toys with Double Layer Reinforced Fabric, Durable Dog Toys, No Stuffing Plush Dog Toy Set for Small to Large Dogs</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4,881</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Nocciola-Squeaky-Reinforced-Durable-Stuffing/dp/B07VZM2PF8/ref=sr_1_51?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dog Toys Soccer Ball with Grab Tabs, Interactive Dog Toys for Tug of War, Puppy Birthday Gifts, Dog Tug Toy, Dog Water Toy, Durable Dog Balls World Cup for Small &amp; Medium Dogs（6 Inch）</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5,791</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Soccer-Interactive-Durable-Medium-Dogs%EF%BC%886/dp/B08RJ63P1X/ref=sr_1_52?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>KONG - Flyer - Durable Rubber Flying Disc Dog Toy - for Large Dogs</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>25,410</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Kong-Rubber-Flyer-Large-Red/dp/B000BRTADK/ref=sr_1_53?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Multipet International Original Loofa Dog Mini 6-Inch Dog Toy (Assorted colors)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>25,161</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Multipet-International-Original-6-Inch-Assorted/dp/B000E1U7OO/ref=sr_1_54?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dog Squeaky Chew Toys for Aggressive Chewers, Indestructible Rubber Carrot Dog Toys for Training and Cleaning, Durable Interactive Tough Dog Toy for Puppy Medium Large Dogs</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Aggressive-Indestructible-Training-Cleaning-Interactive/dp/B0982NNRGT/ref=sr_1_55?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>VANFINE Dog Squeaky Toys Almost Indestructible Tough Durable Dog Toys Dog chew Toys for Large Dogs Aggressive chewers Stick Toys Puppy Chew Toys with Non-Toxic Natural Rubber</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>29,097</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/VANFINE-indestructible-aggressive-Squeaker-Non-Toxic/dp/B07WGXLNKY/ref=sr_1_56?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hartz Dura Play Bacon Scented Bone Dog Toy - Small ( Colors may vary )</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.5 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9,157</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Hartz-Count-Dura-Play-Small/dp/B00H34F5BK/ref=sr_1_57?keywords=dog+toy&amp;qid=1666746002&amp;qu=eyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%3D%3D&amp;sr=8-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EASTBLUE Squeaky Dog Toys for Aggressive Chewers: Rubber Puppy Chew Ball with Squeaker, Almost Indestructible and Durable Pet Toy for Medium and Large Breed</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.4 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11,271</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfYnRmOjIwMDA2MDU5MzY3NTU5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FEASTBLUE-Squeaky-Toys-Aggressive-Chewers-Indestructible%2Fdp%2FB086BTZM3V%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-58-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tough Dog Toys for Aggressive Chewers Large Breed, Apasiri Dog Chew Toys, Durable Dog Toys, Dog Bones Made with Nylon and Rubber, Big Indestructible Dog Toy, Medium Puppy Chew Toys Teething chew Toys</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5,793</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfYnRmOjIwMDA3NTc0MTQyMTM5ODo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FAggressive-Chewers-Apasiri-Indestructible-Teething%2Fdp%2FB08F5G6CGN%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-59-spons%26psc%3D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Plush Dog Toy, Squeaky Interactive Puppy Dog Toys with Crinkle Paper, Durable Chew Toys for Small and Medium Dogs with Elephant Shape</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.3 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5,289</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3OTEzOTM4MTQyMzk5MTAxOjE2NjY3NDYwMDI6c3BfYnRmOjIwMDAxNzU2MTc2NDg3MTo6MDo6&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9idGY&amp;url=%2FKOL-Squeaky-Crinkle-Interactive-Elephant%2Fdp%2FB07X3YTYLL%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Ddog%2Btoy%26qid%3D1666746002%26qu%3DeyJxc2MiOiI4LjI5IiwicXNhIjoiOC4yMyIsInFzcCI6IjcuOTcifQ%253D%253D%26sr%3D8-60-spons%26psc%3D1</t>
         </is>
       </c>
     </row>
